--- a/extra_addons/aaf__golf_view/lib/datosPuntos.xlsx
+++ b/extra_addons/aaf__golf_view/lib/datosPuntos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
   <si>
     <t>id_torneo</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>dia</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
   <si>
     <t>golpes</t>
@@ -95,6 +98,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yy"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -130,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -139,6 +145,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,616 +384,727 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
+        <v>44536.0</v>
+      </c>
+      <c r="F2" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>1.0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
+        <v>44536.0</v>
+      </c>
+      <c r="F3" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>1.0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
+        <v>44536.0</v>
+      </c>
+      <c r="F4" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>2.0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
+        <v>44537.0</v>
+      </c>
+      <c r="F5" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>2.0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
+        <v>44537.0</v>
+      </c>
+      <c r="F6" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>2.0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
+        <v>44537.0</v>
+      </c>
+      <c r="F7" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
         <v>2.0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
+        <v>44537.0</v>
+      </c>
+      <c r="F8" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>3.0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="3">
+        <v>44538.0</v>
+      </c>
+      <c r="F9" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>3.0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
+        <v>44538.0</v>
+      </c>
+      <c r="F10" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
         <v>3.0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
+        <v>44538.0</v>
+      </c>
+      <c r="F11" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
         <v>4.0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="3">
+        <v>44539.0</v>
+      </c>
+      <c r="F12" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
         <v>4.0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
+        <v>44539.0</v>
+      </c>
+      <c r="F13" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>4.0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
+        <v>44539.0</v>
+      </c>
+      <c r="F14" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
+        <v>44539.0</v>
+      </c>
+      <c r="F15" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1">
         <v>5.0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
+        <v>44540.0</v>
+      </c>
+      <c r="F16" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1">
         <v>5.0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
+        <v>44540.0</v>
+      </c>
+      <c r="F17" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>5.0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="3">
+        <v>44540.0</v>
+      </c>
+      <c r="F18" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
         <v>6.0</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="3">
+        <v>44541.0</v>
+      </c>
+      <c r="F19" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1">
         <v>1.0</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
+        <v>44536.0</v>
+      </c>
+      <c r="F20" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>1.0</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
+        <v>44536.0</v>
+      </c>
+      <c r="F21" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>2.0</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
+        <v>44537.0</v>
+      </c>
+      <c r="F22" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1">
         <v>2.0</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
+        <v>44537.0</v>
+      </c>
+      <c r="F23" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1">
         <v>2.0</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
+        <v>44537.0</v>
+      </c>
+      <c r="F24" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1">
         <v>2.0</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="3">
+        <v>44537.0</v>
+      </c>
+      <c r="F25" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1">
         <v>2.0</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
+        <v>44537.0</v>
+      </c>
+      <c r="F26" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="1">
         <v>3.0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
+        <v>44538.0</v>
+      </c>
+      <c r="F27" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="1">
         <v>3.0</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
+        <v>44538.0</v>
+      </c>
+      <c r="F28" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1">
         <v>3.0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="3">
+        <v>44538.0</v>
+      </c>
+      <c r="F29" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1">
         <v>3.0</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="3">
+        <v>44538.0</v>
+      </c>
+      <c r="F30" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1">
         <v>4.0</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="3">
+        <v>44539.0</v>
+      </c>
+      <c r="F31" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
         <v>4.0</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
+        <v>44539.0</v>
+      </c>
+      <c r="F32" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1">
         <v>4.0</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="3">
+        <v>44539.0</v>
+      </c>
+      <c r="F33" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="1">
         <v>5.0</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
+        <v>44540.0</v>
+      </c>
+      <c r="F34" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1">
         <v>5.0</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="3">
+        <v>44540.0</v>
+      </c>
+      <c r="F35" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36" s="1">
         <v>6.0</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="3">
+        <v>44541.0</v>
+      </c>
+      <c r="F36" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D37" s="1">
         <v>6.0</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="3">
+        <v>44541.0</v>
+      </c>
+      <c r="F37" s="1">
         <v>6.0</v>
       </c>
     </row>

--- a/extra_addons/aaf__golf_view/lib/datosPuntos.xlsx
+++ b/extra_addons/aaf__golf_view/lib/datosPuntos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="26">
   <si>
     <t>id_torneo</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>dia</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>golpes</t>
@@ -98,9 +95,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yy"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -136,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -145,9 +139,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,727 +375,616 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
-      <c r="E2" s="3">
-        <v>44536.0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>1.0</v>
       </c>
-      <c r="E3" s="3">
-        <v>44536.0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>1.0</v>
       </c>
-      <c r="E4" s="3">
-        <v>44536.0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>2.0</v>
       </c>
-      <c r="E5" s="3">
-        <v>44537.0</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>2.0</v>
       </c>
-      <c r="E6" s="3">
-        <v>44537.0</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>2.0</v>
       </c>
-      <c r="E7" s="3">
-        <v>44537.0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>2.0</v>
       </c>
-      <c r="E8" s="3">
-        <v>44537.0</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>3.0</v>
       </c>
-      <c r="E9" s="3">
-        <v>44538.0</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>3.0</v>
       </c>
-      <c r="E10" s="3">
-        <v>44538.0</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
         <v>3.0</v>
       </c>
-      <c r="E11" s="3">
-        <v>44538.0</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1">
         <v>4.0</v>
       </c>
-      <c r="E12" s="3">
-        <v>44539.0</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
         <v>4.0</v>
       </c>
-      <c r="E13" s="3">
-        <v>44539.0</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
         <v>4.0</v>
       </c>
-      <c r="E14" s="3">
-        <v>44539.0</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
         <v>4.0</v>
       </c>
-      <c r="E15" s="3">
-        <v>44539.0</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1">
         <v>5.0</v>
       </c>
-      <c r="E16" s="3">
-        <v>44540.0</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
         <v>5.0</v>
       </c>
-      <c r="E17" s="3">
-        <v>44540.0</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1">
         <v>5.0</v>
       </c>
-      <c r="E18" s="3">
-        <v>44540.0</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
         <v>6.0</v>
       </c>
-      <c r="E19" s="3">
-        <v>44541.0</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
         <v>1.0</v>
       </c>
-      <c r="E20" s="3">
-        <v>44536.0</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="1">
         <v>6.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1">
         <v>1.0</v>
       </c>
-      <c r="E21" s="3">
-        <v>44536.0</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
         <v>2.0</v>
       </c>
-      <c r="E22" s="3">
-        <v>44537.0</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>2.0</v>
       </c>
-      <c r="E23" s="3">
-        <v>44537.0</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
         <v>2.0</v>
       </c>
-      <c r="E24" s="3">
-        <v>44537.0</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1">
         <v>2.0</v>
       </c>
-      <c r="E25" s="3">
-        <v>44537.0</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E25" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1">
         <v>2.0</v>
       </c>
-      <c r="E26" s="3">
-        <v>44537.0</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1">
         <v>3.0</v>
       </c>
-      <c r="E27" s="3">
-        <v>44538.0</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1">
         <v>3.0</v>
       </c>
-      <c r="E28" s="3">
-        <v>44538.0</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1">
         <v>3.0</v>
       </c>
-      <c r="E29" s="3">
-        <v>44538.0</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1">
         <v>3.0</v>
       </c>
-      <c r="E30" s="3">
-        <v>44538.0</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="1">
         <v>4.0</v>
       </c>
-      <c r="E31" s="3">
-        <v>44539.0</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" s="1">
         <v>7.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1">
         <v>4.0</v>
       </c>
-      <c r="E32" s="3">
-        <v>44539.0</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1">
         <v>4.0</v>
       </c>
-      <c r="E33" s="3">
-        <v>44539.0</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1">
         <v>5.0</v>
       </c>
-      <c r="E34" s="3">
-        <v>44540.0</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1">
         <v>5.0</v>
       </c>
-      <c r="E35" s="3">
-        <v>44540.0</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E35" s="1">
         <v>4.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1">
         <v>6.0</v>
       </c>
-      <c r="E36" s="3">
-        <v>44541.0</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="1">
         <v>5.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1">
         <v>6.0</v>
       </c>
-      <c r="E37" s="3">
-        <v>44541.0</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" s="1">
         <v>6.0</v>
       </c>
     </row>
